--- a/documents/canasta de 2002 valorada en 2020.xlsx
+++ b/documents/canasta de 2002 valorada en 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563365\GitHub\VEN\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84E75EC-811A-42F6-8968-DF5D838FB3D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF75F8-B7C4-4866-A6E9-82BC154FDB59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6E5811D-15AF-4BE2-93AF-BF99C8B9D3B3}"/>
   </bookViews>
@@ -337,11 +337,12 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -658,25 +659,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97104F8D-F4C7-430C-BBD5-40A01500F090}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>78</v>
       </c>
@@ -687,7 +689,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -712,7 +714,7 @@
         <v>3240764.4548073122</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -723,7 +725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -736,8 +738,18 @@
       <c r="E5" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>1560</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5" s="4">
+        <f>G3*H5</f>
+        <v>324076445480.7312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -753,8 +765,12 @@
       <c r="E6" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="4">
+        <f>I5/G5</f>
+        <v>207741311.20559692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -768,7 +784,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -782,7 +798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -799,7 +815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -816,7 +832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -833,7 +849,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -850,7 +866,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -867,7 +883,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -884,7 +900,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -898,7 +914,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1601,6 +1617,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB9018FA3249548A5BDA34FD45E4298" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9e555be8bae962166f614bdfd23d7fc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2575f19-ccfc-4947-a811-9b717af3c709" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85fc8032558dc2d445bd9a880301b9b0" ns3:_="">
     <xsd:import namespace="a2575f19-ccfc-4947-a811-9b717af3c709"/>
@@ -1764,12 +1786,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1780,6 +1796,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E9227C-CA1E-40DD-BDEA-150E6AF88F5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a2575f19-ccfc-4947-a811-9b717af3c709"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B5736C-4156-4A0A-A0E1-5F00331E7E5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1797,22 +1829,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E9227C-CA1E-40DD-BDEA-150E6AF88F5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a2575f19-ccfc-4947-a811-9b717af3c709"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D22057-0799-4821-96DF-6DEC8F154204}">
   <ds:schemaRefs>
